--- a/QStop大学排名.xlsx
+++ b/QStop大学排名.xlsx
@@ -436,31 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>排名</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>overall_score</t>
+          <t>总分</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>university_name</t>
+          <t>大学名称</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>地址</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,11 +478,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>98.5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>98.5</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -492,11 +500,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>96.90000000000001</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>96.9</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -510,11 +522,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>96.8</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>96.8</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -528,11 +544,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>96.7</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>96.7</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -546,11 +566,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>96.09999999999999</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>96.1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -564,11 +588,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>93.90000000000001</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>93.9</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -582,11 +610,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>93.7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>93.7</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -600,11 +632,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>91.59999999999999</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>91.6</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -618,11 +654,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>90.90000000000001</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>90.9</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -636,11 +676,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>90.3</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>90.3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -654,11 +698,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>90.09999999999999</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>90.1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -672,11 +720,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>88.90000000000001</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>88.9</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -690,11 +742,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>88.5</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>88.5</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -708,11 +764,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>88.40000000000001</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -726,11 +786,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>87.90000000000001</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>87.9</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -744,11 +808,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>87.59999999999999</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>87.6</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -762,11 +830,15 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>87.3</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>87.3</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -780,11 +852,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>87.09999999999999</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>87.1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -798,11 +874,15 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>86.5</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>86.5</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -816,11 +896,15 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>86.2</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>86.2</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -834,11 +918,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>85.5</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>85.5</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -852,11 +940,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>85.2</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>85.2</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -870,11 +962,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>84.7</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>84.7</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -888,11 +984,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>84.09999999999999</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>84.1</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -906,11 +1006,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>83.5</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>83.5</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -924,11 +1028,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>83.3</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -942,11 +1050,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>83.2</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>83.2</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -960,11 +1072,15 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>83</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -978,11 +1094,15 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>82.40000000000001</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>82.4</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -996,11 +1116,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
-        <v>82.3</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>82.3</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1014,11 +1138,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>82.09999999999999</v>
+      <c r="A33">
+        <f>32</f>
+        <v/>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>82.1</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1032,11 +1159,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>82.09999999999999</v>
+      <c r="A34">
+        <f>32</f>
+        <v/>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>82.1</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1050,11 +1180,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>82</v>
+      <c r="A35">
+        <f>34</f>
+        <v/>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1068,11 +1201,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>82</v>
+      <c r="A36">
+        <f>34</f>
+        <v/>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1086,11 +1222,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="n">
-        <v>81.3</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1104,11 +1244,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="n">
-        <v>81.2</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>81.2</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1122,11 +1266,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>81</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1140,11 +1288,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>80.3</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>80.3</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1158,11 +1310,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>80.2</v>
+      <c r="A41">
+        <f>40</f>
+        <v/>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1176,11 +1331,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>80.2</v>
+      <c r="A42">
+        <f>40</f>
+        <v/>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1194,11 +1352,15 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="n">
-        <v>79.8</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1212,11 +1374,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="n">
-        <v>79.59999999999999</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>79.6</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1230,11 +1396,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="n">
-        <v>79</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1248,11 +1418,15 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="n">
-        <v>77.8</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>77.8</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1266,11 +1440,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="n">
-        <v>77.5</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>77.5</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1284,11 +1462,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="n">
-        <v>77.09999999999999</v>
+      <c r="A48">
+        <f>47</f>
+        <v/>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>77.1</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1302,11 +1483,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>77.09999999999999</v>
+      <c r="A49">
+        <f>47</f>
+        <v/>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>77.1</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1320,11 +1504,15 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="n">
-        <v>77</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1338,11 +1526,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>76</v>
+      <c r="A51">
+        <f>50</f>
+        <v/>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1356,11 +1547,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>76</v>
+      <c r="A52">
+        <f>50</f>
+        <v/>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1374,11 +1568,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>50</v>
-      </c>
-      <c r="B53" t="n">
-        <v>76</v>
+      <c r="A53">
+        <f>50</f>
+        <v/>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1392,11 +1589,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>75.7</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>75.7</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1410,11 +1611,15 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>75.40000000000001</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>75.4</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1428,11 +1633,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>73.7</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>73.7</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1446,11 +1655,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>72.90000000000001</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>72.9</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1464,11 +1677,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>72.09999999999999</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>72.1</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1482,11 +1699,15 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>72</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1500,11 +1721,15 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>71.59999999999999</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1518,11 +1743,15 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>71.2</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>71.2</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1536,11 +1765,15 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>70.8</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1554,11 +1787,15 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>70.7</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1572,11 +1809,14 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>70.3</v>
+      <c r="A64">
+        <f>63</f>
+        <v/>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>70.3</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1590,11 +1830,14 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>70.3</v>
+      <c r="A65">
+        <f>63</f>
+        <v/>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>70.3</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1608,11 +1851,15 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>69.7</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1626,11 +1873,15 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>69.5</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1644,11 +1895,15 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>69</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1662,11 +1917,15 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>68.7</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1680,11 +1939,14 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>68.2</v>
+      <c r="A70">
+        <f>69</f>
+        <v/>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>68.2</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1698,11 +1960,14 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>68.2</v>
+      <c r="A71">
+        <f>69</f>
+        <v/>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>68.2</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1716,11 +1981,15 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>67.59999999999999</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>67.6</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1734,11 +2003,15 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>67.09999999999999</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>67.1</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1752,11 +2025,15 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>67</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1770,11 +2047,15 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>65.7</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1788,11 +2069,15 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>65.59999999999999</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>65.6</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1806,11 +2091,15 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>65.3</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1824,11 +2113,15 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>65.2</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>65.2</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1842,11 +2135,15 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>65</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1860,11 +2157,15 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>64.7</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1878,11 +2179,14 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>64.09999999999999</v>
+      <c r="A81">
+        <f>80</f>
+        <v/>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1896,11 +2200,14 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>64.09999999999999</v>
+      <c r="A82">
+        <f>80</f>
+        <v/>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1914,11 +2221,14 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="n">
-        <v>63.8</v>
+      <c r="A83">
+        <f>82</f>
+        <v/>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1932,11 +2242,14 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>63.8</v>
+      <c r="A84">
+        <f>82</f>
+        <v/>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1950,11 +2263,14 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="n">
-        <v>63.7</v>
+      <c r="A85">
+        <f>84</f>
+        <v/>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1968,11 +2284,14 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>63.7</v>
+      <c r="A86">
+        <f>84</f>
+        <v/>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1986,11 +2305,15 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="n">
-        <v>63.5</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2004,11 +2327,15 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="n">
-        <v>62.9</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>62.9</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2022,11 +2349,15 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="n">
-        <v>62.4</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>62.4</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2040,11 +2371,14 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="n">
-        <v>61.7</v>
+      <c r="A90">
+        <f>89</f>
+        <v/>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>61.7</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2058,11 +2392,14 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>61.7</v>
+      <c r="A91">
+        <f>89</f>
+        <v/>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>61.7</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2076,11 +2413,14 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>89</v>
-      </c>
-      <c r="B92" t="n">
-        <v>61.7</v>
+      <c r="A92">
+        <f>89</f>
+        <v/>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>61.7</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2094,11 +2434,15 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="n">
-        <v>61.6</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>61.6</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2112,11 +2456,15 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="n">
-        <v>61.5</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2130,11 +2478,14 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="n">
-        <v>61.4</v>
+      <c r="A95">
+        <f>94</f>
+        <v/>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>61.4</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2148,11 +2499,15 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>96</v>
-      </c>
-      <c r="B96" t="n">
-        <v>61.2</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>61.2</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2166,11 +2521,15 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>97</v>
-      </c>
-      <c r="B97" t="n">
-        <v>60.6</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>60.6</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2184,11 +2543,15 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>98</v>
-      </c>
-      <c r="B98" t="n">
-        <v>60.3</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>60.3</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2202,11 +2565,15 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>99</v>
-      </c>
-      <c r="B99" t="n">
-        <v>59.9</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>59.9</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2220,11 +2587,15 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>100</v>
-      </c>
-      <c r="B100" t="n">
-        <v>59.6</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2238,11 +2609,15 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>101</v>
-      </c>
-      <c r="B101" t="n">
-        <v>59.5</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2256,11 +2631,15 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>102</v>
-      </c>
-      <c r="B102" t="n">
-        <v>59.4</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>59.4</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2274,11 +2653,15 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>103</v>
-      </c>
-      <c r="B103" t="n">
-        <v>59.3</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2292,11 +2675,15 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>104</v>
-      </c>
-      <c r="B104" t="n">
-        <v>59.2</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2310,11 +2697,14 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>105</v>
-      </c>
-      <c r="B105" t="n">
-        <v>59.1</v>
+      <c r="A105">
+        <f>105</f>
+        <v/>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>59.1</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2328,11 +2718,14 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>59.1</v>
+      <c r="A106">
+        <f>105</f>
+        <v/>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>59.1</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2346,11 +2739,15 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>107</v>
-      </c>
-      <c r="B107" t="n">
-        <v>58.8</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2364,11 +2761,15 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>108</v>
-      </c>
-      <c r="B108" t="n">
-        <v>58.6</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>58.6</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2382,11 +2783,15 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="n">
-        <v>58.5</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2400,11 +2805,14 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="n">
-        <v>58.3</v>
+      <c r="A110">
+        <f>109</f>
+        <v/>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>58.3</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2418,11 +2826,14 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>58.3</v>
+      <c r="A111">
+        <f>109</f>
+        <v/>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>58.3</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2436,11 +2847,15 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="n">
-        <v>58.2</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2454,11 +2869,15 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>113</v>
-      </c>
-      <c r="B113" t="n">
-        <v>57.9</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2472,11 +2891,15 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>114</v>
-      </c>
-      <c r="B114" t="n">
-        <v>57.3</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2490,11 +2913,15 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>115</v>
-      </c>
-      <c r="B115" t="n">
-        <v>57.2</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>57.2</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2508,11 +2935,15 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>116</v>
-      </c>
-      <c r="B116" t="n">
-        <v>57.1</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2526,11 +2957,15 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>117</v>
-      </c>
-      <c r="B117" t="n">
-        <v>56.8</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2544,11 +2979,15 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>118</v>
-      </c>
-      <c r="B118" t="n">
-        <v>56.3</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>56.3</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2562,11 +3001,15 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>119</v>
-      </c>
-      <c r="B119" t="n">
-        <v>56.1</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2580,11 +3023,14 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>120</v>
-      </c>
-      <c r="B120" t="n">
-        <v>55.8</v>
+      <c r="A120">
+        <f>120</f>
+        <v/>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>55.8</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2598,11 +3044,14 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="n">
-        <v>55.8</v>
+      <c r="A121">
+        <f>120</f>
+        <v/>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>55.8</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2616,11 +3065,15 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>122</v>
-      </c>
-      <c r="B122" t="n">
-        <v>55.7</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>55.7</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2634,11 +3087,14 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>123</v>
-      </c>
-      <c r="B123" t="n">
-        <v>55.5</v>
+      <c r="A123">
+        <f>123</f>
+        <v/>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>55.5</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2652,11 +3108,14 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="n">
-        <v>55.5</v>
+      <c r="A124">
+        <f>123</f>
+        <v/>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>55.5</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2670,11 +3129,15 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>125</v>
-      </c>
-      <c r="B125" t="n">
-        <v>55.2</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>55.2</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2688,11 +3151,14 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>126</v>
-      </c>
-      <c r="B126" t="n">
-        <v>55</v>
+      <c r="A126">
+        <f>126</f>
+        <v/>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2706,11 +3172,14 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="n">
-        <v>55</v>
+      <c r="A127">
+        <f>126</f>
+        <v/>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2724,11 +3193,15 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>128</v>
-      </c>
-      <c r="B128" t="n">
-        <v>54.8</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>54.8</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2742,11 +3215,15 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>129</v>
-      </c>
-      <c r="B129" t="n">
-        <v>54.5</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>54.5</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2760,11 +3237,15 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>130</v>
-      </c>
-      <c r="B130" t="n">
-        <v>54.4</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2778,11 +3259,15 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>131</v>
-      </c>
-      <c r="B131" t="n">
-        <v>54.3</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>54.3</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2796,11 +3281,15 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>132</v>
-      </c>
-      <c r="B132" t="n">
-        <v>54.2</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2814,11 +3303,14 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>133</v>
-      </c>
-      <c r="B133" t="n">
-        <v>54.1</v>
+      <c r="A133">
+        <f>133</f>
+        <v/>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2832,11 +3324,14 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="n">
-        <v>54.1</v>
+      <c r="A134">
+        <f>133</f>
+        <v/>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2850,11 +3345,14 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>54.1</v>
+      <c r="A135">
+        <f>133</f>
+        <v/>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2868,11 +3366,15 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>136</v>
-      </c>
-      <c r="B136" t="n">
-        <v>54</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2886,11 +3388,15 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>137</v>
-      </c>
-      <c r="B137" t="n">
-        <v>53.9</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>53.9</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2904,11 +3410,15 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>138</v>
-      </c>
-      <c r="B138" t="n">
-        <v>53.8</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>53.8</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2922,11 +3432,14 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>139</v>
-      </c>
-      <c r="B139" t="n">
-        <v>53.7</v>
+      <c r="A139">
+        <f>139</f>
+        <v/>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2940,11 +3453,14 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>139</v>
-      </c>
-      <c r="B140" t="n">
-        <v>53.7</v>
+      <c r="A140">
+        <f>139</f>
+        <v/>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2958,11 +3474,14 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>141</v>
-      </c>
-      <c r="B141" t="n">
-        <v>53.6</v>
+      <c r="A141">
+        <f>141</f>
+        <v/>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2976,11 +3495,14 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>141</v>
-      </c>
-      <c r="B142" t="n">
-        <v>53.6</v>
+      <c r="A142">
+        <f>141</f>
+        <v/>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2994,11 +3516,14 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>53.6</v>
+      <c r="A143">
+        <f>141</f>
+        <v/>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3012,11 +3537,15 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>144</v>
-      </c>
-      <c r="B144" t="n">
-        <v>53.3</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3030,11 +3559,15 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>145</v>
-      </c>
-      <c r="B145" t="n">
-        <v>53</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3048,11 +3581,15 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>146</v>
-      </c>
-      <c r="B146" t="n">
-        <v>52.7</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3066,11 +3603,15 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>147</v>
-      </c>
-      <c r="B147" t="n">
-        <v>52.5</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3084,11 +3625,15 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>148</v>
-      </c>
-      <c r="B148" t="n">
-        <v>52.3</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3102,11 +3647,15 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>149</v>
-      </c>
-      <c r="B149" t="n">
-        <v>52.2</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3120,11 +3669,14 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>150</v>
-      </c>
-      <c r="B150" t="n">
-        <v>52.1</v>
+      <c r="A150">
+        <f>150</f>
+        <v/>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
